--- a/back/public/МАМ (Мартинов Андрій Миколайович)/24.04 Основний МАМ (Мартинов Андрій Миколайович) (Мартинов) -  вул. Амосова 67 кв. 17/Податки.xlsx
+++ b/back/public/МАМ (Мартинов Андрій Миколайович)/24.04 Основний МАМ (Мартинов Андрій Миколайович) (Мартинов) -  вул. Амосова 67 кв. 17/Податки.xlsx
@@ -93,7 +93,7 @@
     <t>адреса квартири яка продається</t>
   </si>
   <si>
-    <t xml:space="preserve">вулиця Амосова 67 (шістдесят сім), село Софіївська Борщагівка, Києво-Святошинський район, Київська область </t>
+    <t>Київська область, Києво-Святошинський район, село Софіївська Борщагівка, вул. Амосова, буд. 67, кв. 17</t>
   </si>
   <si>
     <t>сума по договору</t>
@@ -581,7 +581,7 @@
     <col min="2" max="2" width="26.5" customWidth="true" style="5"/>
     <col min="3" max="3" width="18" customWidth="true" style="5"/>
     <col min="4" max="4" width="17.5" customWidth="true" style="1"/>
-    <col min="5" max="5" width="21.5" customWidth="true" style="5"/>
+    <col min="5" max="5" width="24" customWidth="true" style="5"/>
     <col min="6" max="6" width="14.6640625" customWidth="true" style="5"/>
     <col min="7" max="7" width="36.1640625" customWidth="true" style="5"/>
     <col min="8" max="8" width="36" customWidth="true" style="5"/>
@@ -622,7 +622,7 @@
         <v>407400.0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customHeight="1" ht="92.25">
+    <row r="2" spans="1:11" customHeight="1" ht="99">
       <c r="A2" s="3">
         <v>20370.0</v>
       </c>
